--- a/archive/src/main/resources/template/importHousesArchives.xlsx
+++ b/archive/src/main/resources/template/importHousesArchives.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11920"/>
+    <workbookView windowWidth="28800" windowHeight="11960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,15 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>房屋名称</t>
   </si>
   <si>
     <t>房号</t>
-  </si>
-  <si>
-    <t>楼盘名称</t>
   </si>
   <si>
     <t>房屋编码</t>
@@ -41,7 +38,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,13 +56,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -522,148 +512,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1002,7 +992,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -1027,13 +1017,11 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="D1" s="2"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="H1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/archive/src/main/resources/template/importHousesArchives.xlsx
+++ b/archive/src/main/resources/template/importHousesArchives.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11960"/>
+    <workbookView windowWidth="28800" windowHeight="11920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -992,7 +992,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>

--- a/archive/src/main/resources/template/importHousesArchives.xlsx
+++ b/archive/src/main/resources/template/importHousesArchives.xlsx
@@ -4,17 +4,33 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11920"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>说明：标红的列为必填项，其中“状态”、“房屋户型”、“物业业态”需填写系统中存在的选项值</t>
+  </si>
   <si>
     <t>房屋名称</t>
   </si>
@@ -25,13 +41,31 @@
     <t>房屋编码</t>
   </si>
   <si>
-    <t>标红的列为必填项</t>
+    <t>建筑面积</t>
+  </si>
+  <si>
+    <t>收费面积</t>
+  </si>
+  <si>
+    <t>使用面积</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>公摊面积</t>
+  </si>
+  <si>
+    <t>房屋户型</t>
+  </si>
+  <si>
+    <t>物业业态</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -49,15 +83,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -657,18 +691,36 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -989,42 +1041,77 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="2" width="18.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="18" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="24.25" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18" style="3" customWidth="1"/>
+    <col min="6" max="6" width="17.875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.25" style="3" customWidth="1"/>
+    <col min="8" max="8" width="18" style="3" customWidth="1"/>
+    <col min="9" max="9" width="15" style="3" customWidth="1"/>
+    <col min="10" max="10" width="15.125" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="42" customHeight="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" ht="41" customHeight="1" spans="1:10">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="42" customHeight="1" spans="1:10">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="H1" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
